--- a/output/statistics.xlsx
+++ b/output/statistics.xlsx
@@ -476,7 +476,7 @@
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" style="2" customWidth="1"/>
     <col min="6" max="6" width="14.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -522,7 +522,7 @@
         <v>27</v>
       </c>
       <c r="G2" s="2">
-        <v>147.1391861561982</v>
+        <v>147.14</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -545,7 +545,7 @@
         <v>27</v>
       </c>
       <c r="G3" s="2">
-        <v>146.8497707162695</v>
+        <v>146.85</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -568,7 +568,7 @@
         <v>27</v>
       </c>
       <c r="G4" s="2">
-        <v>147.4538697268044</v>
+        <v>147.45</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -591,7 +591,7 @@
         <v>27</v>
       </c>
       <c r="G5" s="2">
-        <v>149.4420495336754</v>
+        <v>149.44</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -614,7 +614,7 @@
         <v>27</v>
       </c>
       <c r="G6" s="2">
-        <v>147.9456943115278</v>
+        <v>147.95</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -637,7 +637,7 @@
         <v>27</v>
       </c>
       <c r="G7" s="2">
-        <v>147.2446513438549</v>
+        <v>147.24</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -660,7 +660,7 @@
         <v>27</v>
       </c>
       <c r="G8" s="2">
-        <v>149.6105988132222</v>
+        <v>149.61</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -683,7 +683,7 @@
         <v>27</v>
       </c>
       <c r="G9" s="2">
-        <v>149.7183445153459</v>
+        <v>149.72</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -706,7 +706,7 @@
         <v>27</v>
       </c>
       <c r="G10" s="2">
-        <v>149.5095631099757</v>
+        <v>149.51</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -729,7 +729,7 @@
         <v>27</v>
       </c>
       <c r="G11" s="2">
-        <v>150.668863261944</v>
+        <v>150.67</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -752,7 +752,7 @@
         <v>27</v>
       </c>
       <c r="G12" s="2">
-        <v>151.2857587319262</v>
+        <v>151.29</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -775,7 +775,7 @@
         <v>27</v>
       </c>
       <c r="G13" s="2">
-        <v>149.67471365067</v>
+        <v>149.67</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -798,7 +798,7 @@
         <v>27</v>
       </c>
       <c r="G14" s="2">
-        <v>150.0324596283373</v>
+        <v>150.03</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -821,7 +821,7 @@
         <v>27</v>
       </c>
       <c r="G15" s="2">
-        <v>150.3384064458371</v>
+        <v>150.34</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="G16" s="2">
-        <v>150.2944566187809</v>
+        <v>150.29</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -867,7 +867,7 @@
         <v>27</v>
       </c>
       <c r="G17" s="2">
-        <v>150.7983329549509</v>
+        <v>150.8</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -890,7 +890,7 @@
         <v>27</v>
       </c>
       <c r="G18" s="2">
-        <v>149.6787122527464</v>
+        <v>149.68</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -913,7 +913,7 @@
         <v>27</v>
       </c>
       <c r="G19" s="2">
-        <v>150.7082338316595</v>
+        <v>150.71</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -936,7 +936,7 @@
         <v>27</v>
       </c>
       <c r="G20" s="2">
-        <v>149.3501793229943</v>
+        <v>149.35</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -959,7 +959,7 @@
         <v>27</v>
       </c>
       <c r="G21" s="2">
-        <v>150.8685344827586</v>
+        <v>150.87</v>
       </c>
     </row>
   </sheetData>

--- a/output/statistics.xlsx
+++ b/output/statistics.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zakhar\Desktop\Study\greenatom\currency_tracker\output\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Rates" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -40,6 +45,9 @@
     <t>2024-02-01</t>
   </si>
   <si>
+    <t>18:49:00</t>
+  </si>
+  <si>
     <t>2024-02-02</t>
   </si>
   <si>
@@ -95,19 +103,16 @@
   </si>
   <si>
     <t>2024-02-29</t>
-  </si>
-  <si>
-    <t>18:49:00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0.00;(#,##0.00)"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00;\(#,##0.00\)"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,10 +177,18 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -463,23 +476,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -502,7 +515,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -510,457 +523,460 @@
         <v>90.47</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="2">
-        <v>0.61486</v>
+        <v>0.61485999999999996</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="G2" s="2">
-        <v>147.14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>147.13999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" s="2">
-        <v>90.947</v>
+        <v>90.947000000000003</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3" s="2">
-        <v>0.61932</v>
+        <v>0.61931999999999998</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="G3" s="2">
         <v>146.85</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" s="2">
-        <v>90.45999999999999</v>
+        <v>90.46</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2">
-        <v>0.61348</v>
+        <v>0.61348000000000003</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="G4" s="2">
-        <v>147.45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>147.44999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2">
-        <v>91.17310000000001</v>
+        <v>91.173100000000005</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" s="2">
-        <v>0.61009</v>
+        <v>0.61009000000000002</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="G5" s="2">
         <v>149.44</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" s="2">
-        <v>91.20999999999999</v>
+        <v>91.21</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E6" s="2">
         <v>0.61651</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="G6" s="2">
-        <v>147.95</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>147.94999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2">
-        <v>90.7778</v>
+        <v>90.777799999999999</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E7" s="2">
         <v>0.61651</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="G7" s="2">
         <v>147.24</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2">
-        <v>91.01860000000001</v>
+        <v>91.018600000000006</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E8" s="2">
-        <v>0.60837</v>
+        <v>0.60836999999999997</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="G8" s="2">
-        <v>149.61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>149.61000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" s="2">
-        <v>91.2698</v>
+        <v>91.269800000000004</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E9" s="2">
-        <v>0.60961</v>
+        <v>0.60960999999999999</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="G9" s="2">
         <v>149.72</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10" s="2">
-        <v>91.30249999999999</v>
+        <v>91.302499999999995</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E10" s="2">
         <v>0.61068</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="G10" s="2">
         <v>149.51</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11" s="2">
-        <v>91.456</v>
+        <v>91.456000000000003</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E11" s="2">
-        <v>0.607</v>
+        <v>0.60699999999999998</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="G11" s="2">
-        <v>150.67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>150.66999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B12" s="2">
         <v>92.3887</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E12" s="2">
-        <v>0.61069</v>
+        <v>0.61068999999999996</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="G12" s="2">
         <v>151.29</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B13" s="2">
-        <v>92.2565</v>
+        <v>92.256500000000003</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E13" s="2">
-        <v>0.61638</v>
+        <v>0.61638000000000004</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="G13" s="2">
-        <v>149.67</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>149.66999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B14" s="2">
-        <v>92.4425</v>
+        <v>92.442499999999995</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E14" s="2">
-        <v>0.61615</v>
+        <v>0.61614999999999998</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="G14" s="2">
         <v>150.03</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B15" s="2">
-        <v>92.3604</v>
+        <v>92.360399999999998</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15" s="2">
-        <v>0.61435</v>
+        <v>0.61434999999999995</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="G15" s="2">
         <v>150.34</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B16" s="2">
-        <v>92.5889</v>
+        <v>92.588899999999995</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E16" s="2">
-        <v>0.61605</v>
+        <v>0.61604999999999999</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="G16" s="2">
         <v>150.29</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B17" s="2">
-        <v>92.9913</v>
+        <v>92.991299999999995</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17" s="2">
-        <v>0.61666</v>
+        <v>0.61665999999999999</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="G17" s="2">
-        <v>150.8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>150.80000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B18" s="2">
-        <v>92.24250000000001</v>
+        <v>92.242500000000007</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E18" s="2">
-        <v>0.61627</v>
+        <v>0.61626999999999998</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="G18" s="2">
         <v>149.68</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B19" s="2">
         <v>92.14</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E19" s="2">
-        <v>0.61138</v>
+        <v>0.61138000000000003</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="G19" s="2">
         <v>150.71</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B20" s="2">
-        <v>91.1977</v>
+        <v>91.197699999999998</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E20" s="2">
-        <v>0.61063</v>
+        <v>0.61063000000000001</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="G20" s="2">
         <v>149.35</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B21" s="2">
-        <v>91.0039</v>
+        <v>91.003900000000002</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="E21" s="2">
-        <v>0.6032</v>
+        <v>0.60319999999999996</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="G21" s="2">
         <v>150.87</v>
       </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
